--- a/apply.xlsx
+++ b/apply.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9240" windowWidth="18000" xWindow="780" yWindow="780"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11420" windowWidth="15170" xWindow="5150" yWindow="1950"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,17 +18,17 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
       <family val="3"/>
-      <sz val="9"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -398,92 +398,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="9"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="17.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="17.08203125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>001559</t>
+          <t>009714</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合C</t>
+          <t>华安聚优精选混合</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.06</v>
+        <v>0.28</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E1" t="n">
-        <v>8.07</v>
+        <v>-1.52</v>
       </c>
       <c r="F1" t="n">
-        <v>5.94</v>
+        <v>-5.35</v>
       </c>
       <c r="G1" t="n">
-        <v>47.65</v>
+        <v>-19.7</v>
       </c>
       <c r="H1" t="n">
-        <v>84.95999999999999</v>
+        <v>-14.19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>002974</t>
+          <t>005812</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>广发信息技术联接C</t>
+          <t>鹏华产业精选</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.01</v>
+        <v>-1.21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.57</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.92</v>
+        <v>-1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>15.62</v>
+        <v>-16.89</v>
       </c>
       <c r="H2" t="n">
-        <v>35.18</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>009714</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>华安聚优精选混合</t>
+          <t>富国宏观策略灵活配置混合A</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,681 +491,852 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.56</v>
+        <v>1.38</v>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>-1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>-100</v>
+        <v>13.64</v>
       </c>
       <c r="H3" t="n">
-        <v>-100</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>005812</t>
+          <t>009163</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>鹏华产业精选</t>
+          <t>广发医疗保健股票C</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.33</v>
+        <v>-1.53</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.89</v>
+        <v>0.16</v>
       </c>
       <c r="F4" t="n">
-        <v>8.76</v>
+        <v>-2.84</v>
       </c>
       <c r="G4" t="n">
-        <v>57.19</v>
+        <v>-19.78</v>
       </c>
       <c r="H4" t="n">
-        <v>75.76000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>001632</t>
+          <t>001595</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>天弘中证食品饮料指数C</t>
+          <t>天弘中证银行ETF联接C</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04</v>
+        <v>0.48</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.09</v>
+        <v>0.71</v>
       </c>
       <c r="F5" t="n">
-        <v>13.1</v>
+        <v>-1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>58.17</v>
+        <v>-10.06</v>
       </c>
       <c r="H5" t="n">
-        <v>70.68000000000001</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>002939</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>广发创新升级混合</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.33</v>
+        <v>-1.21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="F6" t="n">
-        <v>2.53</v>
+        <v>-0.74</v>
       </c>
       <c r="G6" t="n">
-        <v>22.65</v>
+        <v>6.52</v>
       </c>
       <c r="H6" t="n">
-        <v>48.62</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>009163</t>
+          <t>001510</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广发医疗保健股票C</t>
+          <t>富国新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.32</v>
+        <v>-1.23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.529999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.51</v>
+        <v>3.62</v>
       </c>
       <c r="G7" t="n">
-        <v>44.96</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>-100</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>002903</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>富国创新科技混合</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.41</v>
+        <v>-0.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.84</v>
+        <v>3.36</v>
       </c>
       <c r="F8" t="n">
-        <v>2.41</v>
+        <v>-1.29</v>
       </c>
       <c r="G8" t="n">
-        <v>38.37</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>77.15000000000001</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>005693</t>
+          <t>004875</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>广发中证军工ETF联接C</t>
+          <t>融通深证成份指数C</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.66</v>
+        <v>-0.88</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.96</v>
+        <v>2.15</v>
       </c>
       <c r="F9" t="n">
-        <v>3.18</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>30.86</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>42.8</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>001595</t>
+          <t>005918</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>天弘中证银行指数C</t>
+          <t>天弘沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.73</v>
+        <v>-0.16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.63</v>
+        <v>0.92</v>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>-0.84</v>
       </c>
       <c r="G10" t="n">
-        <v>14.34</v>
+        <v>-5.75</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.26</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>008903</t>
+          <t>001549</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广发科技先锋混合</t>
+          <t>天弘上证50指数C</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.35</v>
+        <v>0.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.46</v>
+        <v>0.73</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.86</v>
+        <v>0.48</v>
       </c>
       <c r="G11" t="n">
-        <v>23.82</v>
+        <v>-8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>-100</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>501010</t>
+          <t>001593</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>汇添富中证生物科技指数C</t>
+          <t>天弘创业板ETF联接基金C</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2</v>
+        <v>-1.98</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.99</v>
+        <v>1.43</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>5.02</v>
       </c>
       <c r="G12" t="n">
-        <v>41.64</v>
+        <v>4.28</v>
       </c>
       <c r="H12" t="n">
-        <v>83.70999999999999</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>001510</t>
+          <t>270002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合C</t>
+          <t>广发稳健增长混合A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.55</v>
+        <v>-0.44</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.13</v>
+        <v>-0.61</v>
       </c>
       <c r="F13" t="n">
-        <v>4.51</v>
+        <v>-0.63</v>
       </c>
       <c r="G13" t="n">
-        <v>40.92</v>
+        <v>-5.81</v>
       </c>
       <c r="H13" t="n">
-        <v>80.93000000000001</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>002903</t>
+          <t>260108</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>景顺长城新兴成长混合</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.08</v>
+        <v>-0.19</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1.33</v>
+        <v>-0.14</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.72</v>
+        <v>4.32</v>
       </c>
       <c r="G14" t="n">
-        <v>19.49</v>
+        <v>-17.56</v>
       </c>
       <c r="H14" t="n">
-        <v>28.09</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>004875</t>
+          <t>519773</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>融通深证成份指数C</t>
+          <t>交银数据产业灵活配置混合</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.95</v>
+        <v>-0.86</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.83</v>
+        <v>4.18</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="G15" t="n">
-        <v>30.93</v>
+        <v>15.61</v>
       </c>
       <c r="H15" t="n">
-        <v>44.51</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>005918</t>
+          <t>005911</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>天弘沪深300ETF联接C</t>
+          <t>广发双擎升级混合A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.01</v>
+        <v>-1.69</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="F16" t="n">
-        <v>2.84</v>
+        <v>-1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>28.75</v>
+        <v>5.26</v>
       </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>001549</t>
+          <t>002611</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>天弘上证50指数C</t>
+          <t>博时黄金ETF联接C</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-07 00:44</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.89</v>
+        <v>-0.9</v>
       </c>
       <c r="F17" t="n">
-        <v>3.44</v>
+        <v>-3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>25.44</v>
+        <v>-4.14</v>
       </c>
       <c r="H17" t="n">
-        <v>18.53</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>001593</t>
+          <t>004789</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>天弘创业板ETF联接基金C</t>
+          <t>富荣沪深300指数增强C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.39</v>
+        <v>-0.16</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.94</v>
+        <v>2.87</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.03</v>
+        <v>3.61</v>
       </c>
       <c r="G18" t="n">
-        <v>32.43</v>
+        <v>0.17</v>
       </c>
       <c r="H18" t="n">
-        <v>60.52</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>270002</t>
+          <t>519736</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>广发稳健增长混合A</t>
+          <t>交银新成长混合</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.02</v>
+        <v>0.35</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.03</v>
+        <v>4.77</v>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="G19" t="n">
-        <v>14.2</v>
+        <v>-5.63</v>
       </c>
       <c r="H19" t="n">
-        <v>26.28</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>260108</t>
+          <t>570001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>景顺长城新兴成长混合</t>
+          <t>诺德价值优势混合</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.26</v>
+        <v>-0.36</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.83</v>
+        <v>0.36</v>
       </c>
       <c r="F20" t="n">
-        <v>10.79</v>
+        <v>3.81</v>
       </c>
       <c r="G20" t="n">
-        <v>52.52</v>
+        <v>-7.28</v>
       </c>
       <c r="H20" t="n">
-        <v>60.52</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>519773</t>
+          <t>161725</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>交银数据产业灵活配置混合</t>
+          <t>招商中证白酒指数(LOF)A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.49</v>
+        <v>-0.61</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.49</v>
+        <v>5.76</v>
       </c>
       <c r="F21" t="n">
-        <v>0.68</v>
+        <v>13.31</v>
       </c>
       <c r="G21" t="n">
-        <v>34.23</v>
+        <v>-12.75</v>
       </c>
       <c r="H21" t="n">
-        <v>77.22</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>005911</t>
+          <t>011329</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>广发双擎升级混合A</t>
+          <t>景顺长城新能源产业股票C</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.92</v>
+        <v>-2.22</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-10-21 15:00</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.13</v>
+        <v>5.22</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.08</v>
+        <v>12.83</v>
       </c>
       <c r="G22" t="n">
-        <v>26.76</v>
+        <v>46.28</v>
       </c>
       <c r="H22" t="n">
-        <v>87</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>002611</t>
+          <t>011636</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>博时黄金ETF联接C</t>
+          <t>富国港股通策略精选混合C</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.05</v>
+        <v>-0.58</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-10-22 02:29</t>
+          <t>2021-12-06 15:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.68</v>
+        <v>-2.35</v>
       </c>
       <c r="F23" t="n">
-        <v>0.44</v>
+        <v>-4.76</v>
       </c>
       <c r="G23" t="n">
-        <v>7.37</v>
+        <v>-2.16</v>
       </c>
       <c r="H23" t="n">
-        <v>17.84</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>010316</t>
-        </is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2021-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H24" t="n">
+        <v>19.86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>009777</t>
-        </is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2021-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-18.34</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>009777</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2021-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="H26" t="n">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2021-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>009571</t>
         </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-20.77</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-13.68</v>
       </c>
     </row>
   </sheetData>
